--- a/VT_IE_IND.xlsx
+++ b/VT_IE_IND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77727985-6A31-46EA-B629-E1122735A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6845E1-7564-4054-8BEC-6811B33A4B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="376">
   <si>
     <t>Development</t>
   </si>
@@ -1368,6 +1368,9 @@
   </si>
   <si>
     <t>SHARE-I~UP~2021</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -30931,8 +30934,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31014,7 +31017,9 @@
       <c r="F5" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
@@ -31036,7 +31041,9 @@
       <c r="F6" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -31059,7 +31066,9 @@
       <c r="F7" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -31081,7 +31090,9 @@
       <c r="F8" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="51"/>
+      <c r="G8" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H8" s="51"/>
       <c r="I8" s="51"/>
       <c r="J8" s="51"/>
@@ -31103,7 +31114,9 @@
       <c r="F9" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
@@ -31125,7 +31138,9 @@
       <c r="F10" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
@@ -31147,7 +31162,9 @@
       <c r="F11" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -31169,7 +31186,9 @@
       <c r="F12" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="51"/>
+      <c r="G12" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -31191,7 +31210,9 @@
       <c r="F13" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
@@ -31213,7 +31234,9 @@
       <c r="F14" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -31235,7 +31258,9 @@
       <c r="F15" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H15" s="23" t="s">
         <v>234</v>
       </c>
@@ -31259,7 +31284,9 @@
       <c r="F16" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -31281,7 +31308,9 @@
       <c r="F17" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
@@ -31303,7 +31332,9 @@
       <c r="F18" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -31325,7 +31356,9 @@
       <c r="F19" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -31347,7 +31380,9 @@
       <c r="F20" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -31369,7 +31404,9 @@
       <c r="F21" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>375</v>
+      </c>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -33407,7 +33444,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:AB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
